--- a/CH-143 Custom Grouping.xlsx
+++ b/CH-143 Custom Grouping.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE05DE-C611-483A-9A85-3BFB89D63321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C26016-7D05-47DA-B92E-8D04BAC90943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -60,6 +84,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7262569932742164481/</t>
+  </si>
+  <si>
+    <t>I think the plus serves the same purpose as --</t>
   </si>
 </sst>
 </file>
@@ -838,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1234,4 +1261,608 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B523850-F4C5-4802-94A5-2F41F68DACC2}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="E1"/>
+      <c r="G1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="23">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>251</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="23">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>632</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="23">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>481</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="17">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>512</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="16">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="16">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="16">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="16">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5" cm="1">
+        <f t="array" ref="G10:H14">_xlfn.GROUPBY(WEEKNUM(+B3:B26,15),C3:C26,_xleta.SUM)</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>251</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:K14">_xlfn.GROUPBY(WEEKNUM(--B3:B26,15),C3:C26,_xleta.SUM)</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>251</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" s="1" cm="1">
+        <f t="array" ref="M10:M33">B3:B26</f>
+        <v>45292</v>
+      </c>
+      <c r="N10" s="3" cm="1">
+        <f t="array" ref="N10:N33">+B3:B26</f>
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="16">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>632</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>632</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11">
+        <v>45293</v>
+      </c>
+      <c r="N11" s="2">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="16">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>481</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>481</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12">
+        <v>45294</v>
+      </c>
+      <c r="N12">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="16">
+        <v>122</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>512</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>512</v>
+      </c>
+      <c r="M13">
+        <v>45295</v>
+      </c>
+      <c r="N13">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="19">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="5" t="str">
+        <v>Total</v>
+      </c>
+      <c r="H14">
+        <v>1876</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Total</v>
+      </c>
+      <c r="K14">
+        <v>1876</v>
+      </c>
+      <c r="M14">
+        <v>45296</v>
+      </c>
+      <c r="N14">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="18">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="19">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="M15">
+        <v>45297</v>
+      </c>
+      <c r="N15">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="18">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="19">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>45298</v>
+      </c>
+      <c r="N16">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="18">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="19">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="M17">
+        <v>45299</v>
+      </c>
+      <c r="N17">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="18">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="19">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="M18">
+        <v>45300</v>
+      </c>
+      <c r="N18">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="18">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="19">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="M19">
+        <v>45301</v>
+      </c>
+      <c r="N19">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="19">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="M20">
+        <v>45302</v>
+      </c>
+      <c r="N20">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="20">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="21">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="M21">
+        <v>45303</v>
+      </c>
+      <c r="N21">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="21">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="M22">
+        <v>45304</v>
+      </c>
+      <c r="N22" s="2">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="20">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="21">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="M23">
+        <v>45305</v>
+      </c>
+      <c r="N23">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="21">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="M24">
+        <v>45306</v>
+      </c>
+      <c r="N24">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="21">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="M25">
+        <v>45307</v>
+      </c>
+      <c r="N25">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="21">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="M26">
+        <v>45308</v>
+      </c>
+      <c r="N26">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+      <c r="M27">
+        <v>45309</v>
+      </c>
+      <c r="N27">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>45310</v>
+      </c>
+      <c r="N28">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>45311</v>
+      </c>
+      <c r="N29">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>45312</v>
+      </c>
+      <c r="N30">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>45313</v>
+      </c>
+      <c r="N31">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>45314</v>
+      </c>
+      <c r="N32">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>45315</v>
+      </c>
+      <c r="N33">
+        <v>45315</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-143 Custom Grouping.xlsx
+++ b/CH-143 Custom Grouping.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C26016-7D05-47DA-B92E-8D04BAC90943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445F0CBC-A2A8-40E6-B380-5AF2061829B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -1267,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B523850-F4C5-4802-94A5-2F41F68DACC2}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,4 +1867,516 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AA4D56-1B9D-4874-83FC-D71DD8B15391}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="E1"/>
+      <c r="G1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="23">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>251</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="23">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>632</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="23">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>481</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="17">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>512</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="16">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="16">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="16">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="16">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5" t="str" cm="1">
+        <f t="array" ref="G10:H15">_xlfn.VSTACK(B2:C2,_xlfn.GROUPBY(WEEKNUM(--B2:B26,15),C2:C26,_xleta.SUM))</f>
+        <v>Date</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="3" cm="1">
+        <f t="array" ref="N10:N33">+B3:B26</f>
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="16">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>251</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" s="2">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="16">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>632</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="16">
+        <v>122</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>481</v>
+      </c>
+      <c r="N13">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="19">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>512</v>
+      </c>
+      <c r="N14">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="18">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="19">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="5" t="str">
+        <v>Total</v>
+      </c>
+      <c r="H15">
+        <v>1876</v>
+      </c>
+      <c r="N15">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="18">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="19">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="N16">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="18">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="19">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="N17">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="18">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="19">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="N18">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="18">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="19">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="N19">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="19">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="N20">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="20">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="21">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="N21">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="21">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="20">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="21">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="N23">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="21">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="N24">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="21">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="N25">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="21">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="N26">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+      <c r="N27">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>45315</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-143 Custom Grouping.xlsx
+++ b/CH-143 Custom Grouping.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445F0CBC-A2A8-40E6-B380-5AF2061829B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38A77A-6B42-46FE-8C4B-77C60A9C1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
     <sheet name="Alt2" sheetId="3" r:id="rId3"/>
+    <sheet name="EDA" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -95,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +126,23 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,8 +300,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -343,8 +369,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Intro_Hd" xfId="2" xr:uid="{3F72AB06-6820-43B9-B0EA-4A15DA8E33A2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A2D22602-6FD9-4D8F-BFCD-ABEBC7B88B24}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,7 +1298,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1873,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AA4D56-1B9D-4874-83FC-D71DD8B15391}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2379,4 +2407,429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F4B811-13FB-4E58-B04A-06E85E596298}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="E1"/>
+      <c r="G1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="23">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>251</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="23">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>632</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="23">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>481</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="17">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>512</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="16">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="16">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="16">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="16">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="16">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="6" t="str" cm="1">
+        <f t="array" ref="G11:H15">_xlfn.VSTACK(G2:H2,_xlfn.DROP(_xlfn.GROUPBY(WEEKNUM(--B3:B26,15),C3:C26,_xleta.SUM,0),-1))</f>
+        <v>Group</v>
+      </c>
+      <c r="H11" s="13" t="str">
+        <v>Total Sales</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="16">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>251</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="16">
+        <v>122</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="19">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="17">
+        <v>3</v>
+      </c>
+      <c r="H14" s="14">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="18">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="19">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="17">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="18">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="19">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="18">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="19">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="18">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="19">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="18">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="19">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="19">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="20">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="21">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="21">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="20">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="21">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="21">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="21">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="21">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-143 Custom Grouping.xlsx
+++ b/CH-143 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38A77A-6B42-46FE-8C4B-77C60A9C1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEC7583-1DD4-42AA-AFDE-C79D9470604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>I think the plus serves the same purpose as --</t>
+  </si>
+  <si>
+    <t>The only odd thing is why do I need to convert the dates to numbers.</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2414,7 +2420,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2724,6 +2730,9 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
+      <c r="G17" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
